--- a/data/evaluation/evaluation_Center_Summer_Cucumbers.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Cucumbers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459.3474489863851</v>
+        <v>481.9354160435369</v>
       </c>
       <c r="C4" t="n">
-        <v>670975.2893646471</v>
+        <v>700345.646064077</v>
       </c>
       <c r="D4" t="n">
-        <v>819.1308133409749</v>
+        <v>836.8665640734353</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4093860330579189</v>
+        <v>0.3835333032246342</v>
       </c>
     </row>
     <row r="5">
